--- a/xlsx/country_comparison/conjoint_ab_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_ab_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Global climate scheme (GCS)</t>
@@ -398,125 +401,146 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.781995380252627</v>
+        <v>0.533050523673449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.712010897427332</v>
+        <v>0.752698343735098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.827767423293579</v>
+        <v>0.805398319468679</v>
       </c>
       <c r="E2" t="n">
-        <v>0.722976555380657</v>
+        <v>0.708750845625959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.533050523673449</v>
+        <v>0.813439832560037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.745700372884844</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.781888355211445</v>
+        <v>0.540334377126678</v>
       </c>
       <c r="C3" t="n">
-        <v>0.711660781652381</v>
+        <v>0.732801058256552</v>
       </c>
       <c r="D3" t="n">
-        <v>0.801845843811584</v>
+        <v>0.788948273734533</v>
       </c>
       <c r="E3" t="n">
-        <v>0.662615164948802</v>
+        <v>0.709122563432032</v>
       </c>
       <c r="F3" t="n">
-        <v>0.540334377126678</v>
+        <v>0.798611869881155</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.697707624460728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.506460022581565</v>
+        <v>0.466267232447944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.557637736806466</v>
+        <v>0.528521467316923</v>
       </c>
       <c r="D4" t="n">
-        <v>0.558863995749703</v>
+        <v>0.54298320618301</v>
       </c>
       <c r="E4" t="n">
-        <v>0.487015877061265</v>
+        <v>0.55747359485376</v>
       </c>
       <c r="F4" t="n">
-        <v>0.466267232447944</v>
+        <v>0.521779060704512</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.506395266498014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.857219385761349</v>
+        <v>0.547146463744832</v>
       </c>
       <c r="C5" t="n">
-        <v>0.751394618919885</v>
+        <v>0.78738474277188</v>
       </c>
       <c r="D5" t="n">
-        <v>0.838683821949252</v>
+        <v>0.865856512542897</v>
       </c>
       <c r="E5" t="n">
-        <v>0.723608598723154</v>
+        <v>0.753877610588178</v>
       </c>
       <c r="F5" t="n">
-        <v>0.547146463744832</v>
+        <v>0.79677790782055</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.769605840282518</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.761156408027965</v>
+        <v>0.551530613317319</v>
       </c>
       <c r="C6" t="n">
-        <v>0.762099934805461</v>
+        <v>0.762566643428049</v>
       </c>
       <c r="D6" t="n">
-        <v>0.784971497489425</v>
+        <v>0.794500153667354</v>
       </c>
       <c r="E6" t="n">
-        <v>0.746088878052818</v>
+        <v>0.746330102375747</v>
       </c>
       <c r="F6" t="n">
-        <v>0.551530613317319</v>
+        <v>0.768621148374205</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.773450102052741</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.881762510881357</v>
+        <v>0.621563662115855</v>
       </c>
       <c r="C7" t="n">
-        <v>0.823710192520629</v>
+        <v>0.851093062431084</v>
       </c>
       <c r="D7" t="n">
-        <v>0.869627482347471</v>
+        <v>0.891209997097121</v>
       </c>
       <c r="E7" t="n">
-        <v>0.845000327812302</v>
+        <v>0.836163608902924</v>
       </c>
       <c r="F7" t="n">
-        <v>0.621563662115855</v>
+        <v>0.85553619504808</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.860329350730786</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_ab_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_ab_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -38,19 +38,16 @@
     <t xml:space="preserve">Global climate scheme (GCS)</t>
   </si>
   <si>
+    <t xml:space="preserve">NR+GCS preferred to NR</t>
+  </si>
+  <si>
     <t xml:space="preserve">C+NR+GCS preferred to C+NR</t>
   </si>
   <si>
+    <t xml:space="preserve">NR+C preferred to NR</t>
+  </si>
+  <si>
     <t xml:space="preserve">GCS+NR preferred to C+NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR+C+GCS preferred to NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR+GCS preferred to NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR+C preferred to NR</t>
   </si>
 </sst>
 </file>
@@ -433,22 +430,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.540334377126678</v>
+        <v>0.551530613317319</v>
       </c>
       <c r="C3" t="n">
-        <v>0.732801058256552</v>
+        <v>0.762566643428049</v>
       </c>
       <c r="D3" t="n">
-        <v>0.788948273734533</v>
+        <v>0.794500153667354</v>
       </c>
       <c r="E3" t="n">
-        <v>0.709122563432032</v>
+        <v>0.746330102375747</v>
       </c>
       <c r="F3" t="n">
-        <v>0.798611869881155</v>
+        <v>0.768621148374205</v>
       </c>
       <c r="G3" t="n">
-        <v>0.697707624460728</v>
+        <v>0.773450102052741</v>
       </c>
     </row>
     <row r="4">
@@ -456,22 +453,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.466267232447944</v>
+        <v>0.540334377126678</v>
       </c>
       <c r="C4" t="n">
-        <v>0.528521467316923</v>
+        <v>0.732801058256552</v>
       </c>
       <c r="D4" t="n">
-        <v>0.54298320618301</v>
+        <v>0.788948273734533</v>
       </c>
       <c r="E4" t="n">
-        <v>0.55747359485376</v>
+        <v>0.709122563432032</v>
       </c>
       <c r="F4" t="n">
-        <v>0.521779060704512</v>
+        <v>0.798611869881155</v>
       </c>
       <c r="G4" t="n">
-        <v>0.506395266498014</v>
+        <v>0.697707624460728</v>
       </c>
     </row>
     <row r="5">
@@ -479,22 +476,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.547146463744832</v>
+        <v>0.621563662115855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.78738474277188</v>
+        <v>0.851093062431084</v>
       </c>
       <c r="D5" t="n">
-        <v>0.865856512542897</v>
+        <v>0.891209997097121</v>
       </c>
       <c r="E5" t="n">
-        <v>0.753877610588178</v>
+        <v>0.836163608902924</v>
       </c>
       <c r="F5" t="n">
-        <v>0.79677790782055</v>
+        <v>0.85553619504808</v>
       </c>
       <c r="G5" t="n">
-        <v>0.769605840282518</v>
+        <v>0.860329350730786</v>
       </c>
     </row>
     <row r="6">
@@ -502,45 +499,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.551530613317319</v>
+        <v>0.466267232447944</v>
       </c>
       <c r="C6" t="n">
-        <v>0.762566643428049</v>
+        <v>0.528521467316923</v>
       </c>
       <c r="D6" t="n">
-        <v>0.794500153667354</v>
+        <v>0.54298320618301</v>
       </c>
       <c r="E6" t="n">
-        <v>0.746330102375747</v>
+        <v>0.55747359485376</v>
       </c>
       <c r="F6" t="n">
-        <v>0.768621148374205</v>
+        <v>0.521779060704512</v>
       </c>
       <c r="G6" t="n">
-        <v>0.773450102052741</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.621563662115855</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.851093062431084</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.891209997097121</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.836163608902924</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.85553619504808</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.860329350730786</v>
+        <v>0.506395266498014</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_ab_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_ab_positive.xlsx
@@ -407,22 +407,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.533050523673449</v>
+        <v>0.538935914430919</v>
       </c>
       <c r="C2" t="n">
-        <v>0.752698343735098</v>
+        <v>0.757320866764204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.805398319468679</v>
+        <v>0.802845995450502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.708750845625959</v>
+        <v>0.712681465751731</v>
       </c>
       <c r="F2" t="n">
-        <v>0.813439832560037</v>
+        <v>0.809917713113721</v>
       </c>
       <c r="G2" t="n">
-        <v>0.745700372884844</v>
+        <v>0.74106127773703</v>
       </c>
     </row>
     <row r="3">
@@ -430,22 +430,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.551530613317319</v>
+        <v>0.546998519360197</v>
       </c>
       <c r="C3" t="n">
-        <v>0.762566643428049</v>
+        <v>0.770223388683434</v>
       </c>
       <c r="D3" t="n">
-        <v>0.794500153667354</v>
+        <v>0.791348238675161</v>
       </c>
       <c r="E3" t="n">
-        <v>0.746330102375747</v>
+        <v>0.7419152210687</v>
       </c>
       <c r="F3" t="n">
-        <v>0.768621148374205</v>
+        <v>0.792397387102864</v>
       </c>
       <c r="G3" t="n">
-        <v>0.773450102052741</v>
+        <v>0.772122341113144</v>
       </c>
     </row>
     <row r="4">
@@ -453,22 +453,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.540334377126678</v>
+        <v>0.547746186051635</v>
       </c>
       <c r="C4" t="n">
-        <v>0.732801058256552</v>
+        <v>0.735351301009053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.788948273734533</v>
+        <v>0.786517033810842</v>
       </c>
       <c r="E4" t="n">
-        <v>0.709122563432032</v>
+        <v>0.714098080786382</v>
       </c>
       <c r="F4" t="n">
-        <v>0.798611869881155</v>
+        <v>0.782294412865101</v>
       </c>
       <c r="G4" t="n">
-        <v>0.697707624460728</v>
+        <v>0.683359692303094</v>
       </c>
     </row>
     <row r="5">
@@ -476,22 +476,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.621563662115855</v>
+        <v>0.616278518818649</v>
       </c>
       <c r="C5" t="n">
-        <v>0.851093062431084</v>
+        <v>0.840441328944408</v>
       </c>
       <c r="D5" t="n">
-        <v>0.891209997097121</v>
+        <v>0.877676923710508</v>
       </c>
       <c r="E5" t="n">
-        <v>0.836163608902924</v>
+        <v>0.829293481343928</v>
       </c>
       <c r="F5" t="n">
-        <v>0.85553619504808</v>
+        <v>0.8401259487174</v>
       </c>
       <c r="G5" t="n">
-        <v>0.860329350730786</v>
+        <v>0.823739735276932</v>
       </c>
     </row>
     <row r="6">
@@ -499,22 +499,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.466267232447944</v>
+        <v>0.472512715667483</v>
       </c>
       <c r="C6" t="n">
-        <v>0.528521467316923</v>
+        <v>0.515377450158311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.54298320618301</v>
+        <v>0.529174790889353</v>
       </c>
       <c r="E6" t="n">
-        <v>0.55747359485376</v>
+        <v>0.532760503496087</v>
       </c>
       <c r="F6" t="n">
-        <v>0.521779060704512</v>
+        <v>0.490919481564323</v>
       </c>
       <c r="G6" t="n">
-        <v>0.506395266498014</v>
+        <v>0.520312075113975</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_ab_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_ab_positive.xlsx
@@ -407,7 +407,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.538935914430919</v>
+        <v>0.527972736493319</v>
       </c>
       <c r="C2" t="n">
         <v>0.757320866764204</v>

--- a/xlsx/country_comparison/conjoint_ab_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_ab_positive.xlsx
@@ -407,7 +407,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.527972736493319</v>
+        <v>0.542040008566919</v>
       </c>
       <c r="C2" t="n">
         <v>0.757320866764204</v>
